--- a/team_specific_matrix/Jackson St._A.xlsx
+++ b/team_specific_matrix/Jackson St._A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1948051948051948</v>
+        <v>0.2068965517241379</v>
       </c>
       <c r="C2">
-        <v>0.5541125541125541</v>
+        <v>0.5297805642633229</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.008658008658008658</v>
+        <v>0.006269592476489028</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1385281385281385</v>
+        <v>0.1442006269592477</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1038961038961039</v>
+        <v>0.1128526645768025</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.01526717557251908</v>
+        <v>0.01176470588235294</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03053435114503817</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7786259541984732</v>
+        <v>0.7588235294117647</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1755725190839695</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.06666666666666667</v>
+        <v>0.0851063829787234</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6666666666666666</v>
+        <v>0.6170212765957447</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2666666666666667</v>
+        <v>0.2978723404255319</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.0896551724137931</v>
+        <v>0.07804878048780488</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02758620689655172</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.04137931034482759</v>
+        <v>0.03902439024390244</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3241379310344827</v>
+        <v>0.3024390243902439</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02068965517241379</v>
+        <v>0.01951219512195122</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1655172413793103</v>
+        <v>0.175609756097561</v>
       </c>
       <c r="R6">
-        <v>0.06206896551724138</v>
+        <v>0.07804878048780488</v>
       </c>
       <c r="S6">
-        <v>0.2689655172413793</v>
+        <v>0.2829268292682927</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1461538461538462</v>
+        <v>0.1157894736842105</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02307692307692308</v>
+        <v>0.03157894736842105</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.04615384615384616</v>
+        <v>0.04736842105263158</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1692307692307692</v>
+        <v>0.1631578947368421</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.03846153846153846</v>
+        <v>0.03684210526315789</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1307692307692308</v>
+        <v>0.1157894736842105</v>
       </c>
       <c r="R7">
-        <v>0.07692307692307693</v>
+        <v>0.05789473684210526</v>
       </c>
       <c r="S7">
-        <v>0.3692307692307693</v>
+        <v>0.4315789473684211</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1064516129032258</v>
+        <v>0.09195402298850575</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.006451612903225806</v>
+        <v>0.01149425287356322</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.04193548387096774</v>
+        <v>0.04367816091954023</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1580645161290322</v>
+        <v>0.1425287356321839</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02258064516129032</v>
+        <v>0.02528735632183908</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1806451612903226</v>
+        <v>0.1655172413793103</v>
       </c>
       <c r="R8">
-        <v>0.07419354838709677</v>
+        <v>0.07816091954022988</v>
       </c>
       <c r="S8">
-        <v>0.4096774193548387</v>
+        <v>0.4413793103448276</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.06504065040650407</v>
+        <v>0.08205128205128205</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.008130081300813009</v>
+        <v>0.02051282051282051</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.05691056910569105</v>
+        <v>0.06153846153846154</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1951219512195122</v>
+        <v>0.1641025641025641</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01626016260162602</v>
+        <v>0.01538461538461539</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1707317073170732</v>
+        <v>0.1692307692307692</v>
       </c>
       <c r="R9">
-        <v>0.08130081300813008</v>
+        <v>0.08205128205128205</v>
       </c>
       <c r="S9">
-        <v>0.4065040650406504</v>
+        <v>0.4051282051282051</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.120575221238938</v>
+        <v>0.1214511041009464</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02323008849557522</v>
+        <v>0.02287066246056782</v>
       </c>
       <c r="E10">
-        <v>0.002212389380530973</v>
+        <v>0.001577287066246057</v>
       </c>
       <c r="F10">
-        <v>0.06084070796460177</v>
+        <v>0.06309148264984227</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1537610619469026</v>
+        <v>0.1372239747634069</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01991150442477876</v>
+        <v>0.01813880126182965</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1935840707964602</v>
+        <v>0.1924290220820189</v>
       </c>
       <c r="R10">
-        <v>0.07411504424778761</v>
+        <v>0.07334384858044164</v>
       </c>
       <c r="S10">
-        <v>0.3517699115044248</v>
+        <v>0.3698738170347003</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1805555555555556</v>
+        <v>0.1525974025974026</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.06481481481481481</v>
+        <v>0.06493506493506493</v>
       </c>
       <c r="K11">
-        <v>0.2037037037037037</v>
+        <v>0.1980519480519481</v>
       </c>
       <c r="L11">
-        <v>0.5370370370370371</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01388888888888889</v>
+        <v>0.01298701298701299</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6612903225806451</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2661290322580645</v>
+        <v>0.2393617021276596</v>
       </c>
       <c r="K12">
-        <v>0.008064516129032258</v>
+        <v>0.005319148936170213</v>
       </c>
       <c r="L12">
-        <v>0.02419354838709677</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.04032258064516129</v>
+        <v>0.05319148936170213</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.0261437908496732</v>
+        <v>0.02304147465437788</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.130718954248366</v>
+        <v>0.152073732718894</v>
       </c>
       <c r="I15">
-        <v>0.0718954248366013</v>
+        <v>0.05990783410138249</v>
       </c>
       <c r="J15">
-        <v>0.3660130718954248</v>
+        <v>0.3317972350230415</v>
       </c>
       <c r="K15">
-        <v>0.07843137254901961</v>
+        <v>0.05529953917050692</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.0196078431372549</v>
+        <v>0.02764976958525346</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.03267973856209151</v>
+        <v>0.05990783410138249</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2745098039215687</v>
+        <v>0.2903225806451613</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.0131578947368421</v>
+        <v>0.015</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1381578947368421</v>
+        <v>0.14</v>
       </c>
       <c r="I16">
-        <v>0.09868421052631579</v>
+        <v>0.115</v>
       </c>
       <c r="J16">
-        <v>0.4473684210526316</v>
+        <v>0.41</v>
       </c>
       <c r="K16">
-        <v>0.09868421052631579</v>
+        <v>0.1</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.006578947368421052</v>
+        <v>0.005</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.03947368421052631</v>
+        <v>0.055</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1578947368421053</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.03793103448275862</v>
+        <v>0.03465346534653466</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1862068965517241</v>
+        <v>0.1707920792079208</v>
       </c>
       <c r="I17">
-        <v>0.1103448275862069</v>
+        <v>0.1188118811881188</v>
       </c>
       <c r="J17">
-        <v>0.3482758620689655</v>
+        <v>0.3762376237623762</v>
       </c>
       <c r="K17">
-        <v>0.103448275862069</v>
+        <v>0.1089108910891089</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.006896551724137931</v>
+        <v>0.007425742574257425</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.09310344827586207</v>
+        <v>0.07425742574257425</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1137931034482759</v>
+        <v>0.1089108910891089</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02542372881355932</v>
+        <v>0.01775147928994083</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1779661016949153</v>
+        <v>0.1715976331360947</v>
       </c>
       <c r="I18">
-        <v>0.03389830508474576</v>
+        <v>0.0650887573964497</v>
       </c>
       <c r="J18">
-        <v>0.3813559322033898</v>
+        <v>0.3905325443786982</v>
       </c>
       <c r="K18">
-        <v>0.1525423728813559</v>
+        <v>0.1301775147928994</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.005917159763313609</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.09322033898305085</v>
+        <v>0.08284023668639054</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1355932203389831</v>
+        <v>0.136094674556213</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02130177514792899</v>
+        <v>0.01971608832807571</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2331360946745562</v>
+        <v>0.2208201892744479</v>
       </c>
       <c r="I19">
-        <v>0.07100591715976332</v>
+        <v>0.07886435331230283</v>
       </c>
       <c r="J19">
-        <v>0.3597633136094674</v>
+        <v>0.3659305993690852</v>
       </c>
       <c r="K19">
-        <v>0.1088757396449704</v>
+        <v>0.1151419558359622</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02248520710059172</v>
+        <v>0.01892744479495268</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.001577287066246057</v>
       </c>
       <c r="O19">
-        <v>0.0650887573964497</v>
+        <v>0.06309148264984227</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1183431952662722</v>
+        <v>0.1159305993690852</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Jackson St._A.xlsx
+++ b/team_specific_matrix/Jackson St._A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2068965517241379</v>
+        <v>0.2017804154302671</v>
       </c>
       <c r="C2">
-        <v>0.5297805642633229</v>
+        <v>0.5400593471810089</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.006269592476489028</v>
+        <v>0.005934718100890208</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1442006269592477</v>
+        <v>0.1394658753709199</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1128526645768025</v>
+        <v>0.1127596439169139</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.01176470588235294</v>
+        <v>0.0108695652173913</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02941176470588235</v>
+        <v>0.02717391304347826</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7588235294117647</v>
+        <v>0.7554347826086957</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2</v>
+        <v>0.2065217391304348</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0851063829787234</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6170212765957447</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2978723404255319</v>
+        <v>0.3076923076923077</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07804878048780488</v>
+        <v>0.07239819004524888</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02439024390243903</v>
+        <v>0.03167420814479638</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.03902439024390244</v>
+        <v>0.05429864253393665</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3024390243902439</v>
+        <v>0.2895927601809955</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01951219512195122</v>
+        <v>0.02262443438914027</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.175609756097561</v>
+        <v>0.1719457013574661</v>
       </c>
       <c r="R6">
-        <v>0.07804878048780488</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="S6">
-        <v>0.2829268292682927</v>
+        <v>0.2805429864253394</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1157894736842105</v>
+        <v>0.1138613861386139</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03157894736842105</v>
+        <v>0.0297029702970297</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.04736842105263158</v>
+        <v>0.04455445544554455</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1631578947368421</v>
+        <v>0.1534653465346535</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.03684210526315789</v>
+        <v>0.04455445544554455</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1157894736842105</v>
+        <v>0.1138613861386139</v>
       </c>
       <c r="R7">
-        <v>0.05789473684210526</v>
+        <v>0.0594059405940594</v>
       </c>
       <c r="S7">
-        <v>0.4315789473684211</v>
+        <v>0.4405940594059406</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09195402298850575</v>
+        <v>0.09725158562367865</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01149425287356322</v>
+        <v>0.0105708245243129</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.04367816091954023</v>
+        <v>0.04228329809725159</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1425287356321839</v>
+        <v>0.1395348837209302</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02528735632183908</v>
+        <v>0.02536997885835095</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1655172413793103</v>
+        <v>0.1627906976744186</v>
       </c>
       <c r="R8">
-        <v>0.07816091954022988</v>
+        <v>0.08668076109936575</v>
       </c>
       <c r="S8">
-        <v>0.4413793103448276</v>
+        <v>0.4355179704016913</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08205128205128205</v>
+        <v>0.08450704225352113</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02051282051282051</v>
+        <v>0.0187793427230047</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.06153846153846154</v>
+        <v>0.06103286384976526</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1641025641025641</v>
+        <v>0.1549295774647887</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01538461538461539</v>
+        <v>0.0187793427230047</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1692307692307692</v>
+        <v>0.1596244131455399</v>
       </c>
       <c r="R9">
-        <v>0.08205128205128205</v>
+        <v>0.08450704225352113</v>
       </c>
       <c r="S9">
-        <v>0.4051282051282051</v>
+        <v>0.4178403755868544</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1214511041009464</v>
+        <v>0.1200596569724087</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02287066246056782</v>
+        <v>0.0238627889634601</v>
       </c>
       <c r="E10">
-        <v>0.001577287066246057</v>
+        <v>0.001491424310216256</v>
       </c>
       <c r="F10">
-        <v>0.06309148264984227</v>
+        <v>0.06338553318419091</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1372239747634069</v>
+        <v>0.1349739000745712</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01813880126182965</v>
+        <v>0.01864280387770321</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1924290220820189</v>
+        <v>0.1968680089485459</v>
       </c>
       <c r="R10">
-        <v>0.07334384858044164</v>
+        <v>0.07233407904548844</v>
       </c>
       <c r="S10">
-        <v>0.3698738170347003</v>
+        <v>0.3683818046234154</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1525974025974026</v>
+        <v>0.1512345679012346</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.06493506493506493</v>
+        <v>0.06790123456790123</v>
       </c>
       <c r="K11">
-        <v>0.1980519480519481</v>
+        <v>0.1944444444444444</v>
       </c>
       <c r="L11">
-        <v>0.5714285714285714</v>
+        <v>0.5740740740740741</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01298701298701299</v>
+        <v>0.01234567901234568</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6808510638297872</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2393617021276596</v>
+        <v>0.235</v>
       </c>
       <c r="K12">
-        <v>0.005319148936170213</v>
+        <v>0.005</v>
       </c>
       <c r="L12">
-        <v>0.02127659574468085</v>
+        <v>0.02</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.05319148936170213</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.4</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02304147465437788</v>
+        <v>0.02542372881355932</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.152073732718894</v>
+        <v>0.1483050847457627</v>
       </c>
       <c r="I15">
-        <v>0.05990783410138249</v>
+        <v>0.05932203389830509</v>
       </c>
       <c r="J15">
-        <v>0.3317972350230415</v>
+        <v>0.3347457627118644</v>
       </c>
       <c r="K15">
-        <v>0.05529953917050692</v>
+        <v>0.05508474576271186</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.02764976958525346</v>
+        <v>0.02542372881355932</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.05990783410138249</v>
+        <v>0.0635593220338983</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2903225806451613</v>
+        <v>0.288135593220339</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.015</v>
+        <v>0.01869158878504673</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.14</v>
+        <v>0.1448598130841121</v>
       </c>
       <c r="I16">
-        <v>0.115</v>
+        <v>0.1168224299065421</v>
       </c>
       <c r="J16">
-        <v>0.41</v>
+        <v>0.411214953271028</v>
       </c>
       <c r="K16">
-        <v>0.1</v>
+        <v>0.09345794392523364</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.005</v>
+        <v>0.004672897196261682</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.055</v>
+        <v>0.0514018691588785</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.16</v>
+        <v>0.1588785046728972</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.03465346534653466</v>
+        <v>0.03248259860788863</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1707920792079208</v>
+        <v>0.1670533642691415</v>
       </c>
       <c r="I17">
-        <v>0.1188118811881188</v>
+        <v>0.1183294663573086</v>
       </c>
       <c r="J17">
-        <v>0.3762376237623762</v>
+        <v>0.3805104408352668</v>
       </c>
       <c r="K17">
-        <v>0.1089108910891089</v>
+        <v>0.1090487238979118</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.007425742574257425</v>
+        <v>0.009280742459396751</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.07425742574257425</v>
+        <v>0.07192575406032482</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1089108910891089</v>
+        <v>0.111368909512761</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01775147928994083</v>
+        <v>0.01630434782608696</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1715976331360947</v>
+        <v>0.1684782608695652</v>
       </c>
       <c r="I18">
-        <v>0.0650887573964497</v>
+        <v>0.07065217391304347</v>
       </c>
       <c r="J18">
-        <v>0.3905325443786982</v>
+        <v>0.4021739130434783</v>
       </c>
       <c r="K18">
-        <v>0.1301775147928994</v>
+        <v>0.125</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.005917159763313609</v>
+        <v>0.0108695652173913</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.08284023668639054</v>
+        <v>0.07608695652173914</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.136094674556213</v>
+        <v>0.1304347826086956</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01971608832807571</v>
+        <v>0.02135493372606775</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2208201892744479</v>
+        <v>0.227540500736377</v>
       </c>
       <c r="I19">
-        <v>0.07886435331230283</v>
+        <v>0.08100147275405008</v>
       </c>
       <c r="J19">
-        <v>0.3659305993690852</v>
+        <v>0.3586156111929308</v>
       </c>
       <c r="K19">
-        <v>0.1151419558359622</v>
+        <v>0.1119293078055965</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01892744479495268</v>
+        <v>0.01840942562592047</v>
       </c>
       <c r="N19">
-        <v>0.001577287066246057</v>
+        <v>0.001472754050073638</v>
       </c>
       <c r="O19">
-        <v>0.06309148264984227</v>
+        <v>0.0625920471281296</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1159305993690852</v>
+        <v>0.1170839469808542</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Jackson St._A.xlsx
+++ b/team_specific_matrix/Jackson St._A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2017804154302671</v>
+        <v>0.1977715877437326</v>
       </c>
       <c r="C2">
-        <v>0.5400593471810089</v>
+        <v>0.5459610027855153</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.005934718100890208</v>
+        <v>0.005571030640668524</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1394658753709199</v>
+        <v>0.1364902506963788</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1127596439169139</v>
+        <v>0.1142061281337047</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.0108695652173913</v>
+        <v>0.01015228426395939</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02717391304347826</v>
+        <v>0.03045685279187817</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7554347826086957</v>
+        <v>0.7411167512690355</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2065217391304348</v>
+        <v>0.2182741116751269</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.07692307692307693</v>
+        <v>0.07272727272727272</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6153846153846154</v>
+        <v>0.6181818181818182</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3076923076923077</v>
+        <v>0.3090909090909091</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07239819004524888</v>
+        <v>0.06751054852320675</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.03167420814479638</v>
+        <v>0.02953586497890295</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.05429864253393665</v>
+        <v>0.05063291139240506</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2895927601809955</v>
+        <v>0.2911392405063291</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02262443438914027</v>
+        <v>0.02531645569620253</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1719457013574661</v>
+        <v>0.1856540084388186</v>
       </c>
       <c r="R6">
-        <v>0.07692307692307693</v>
+        <v>0.0759493670886076</v>
       </c>
       <c r="S6">
-        <v>0.2805429864253394</v>
+        <v>0.2742616033755274</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1138613861386139</v>
+        <v>0.1142857142857143</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0297029702970297</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.04455445544554455</v>
+        <v>0.04285714285714286</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1534653465346535</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.04455445544554455</v>
+        <v>0.04285714285714286</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1138613861386139</v>
+        <v>0.1142857142857143</v>
       </c>
       <c r="R7">
-        <v>0.0594059405940594</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="S7">
-        <v>0.4405940594059406</v>
+        <v>0.4333333333333333</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09725158562367865</v>
+        <v>0.09664694280078895</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0105708245243129</v>
+        <v>0.01183431952662722</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.04228329809725159</v>
+        <v>0.04142011834319527</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1395348837209302</v>
+        <v>0.1479289940828402</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02536997885835095</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1627906976744186</v>
+        <v>0.1637080867850099</v>
       </c>
       <c r="R8">
-        <v>0.08668076109936575</v>
+        <v>0.08678500986193294</v>
       </c>
       <c r="S8">
-        <v>0.4355179704016913</v>
+        <v>0.4260355029585799</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08450704225352113</v>
+        <v>0.0847457627118644</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0187793427230047</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.06103286384976526</v>
+        <v>0.0635593220338983</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1549295774647887</v>
+        <v>0.1694915254237288</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.0187793427230047</v>
+        <v>0.0211864406779661</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1596244131455399</v>
+        <v>0.1694915254237288</v>
       </c>
       <c r="R9">
-        <v>0.08450704225352113</v>
+        <v>0.08050847457627118</v>
       </c>
       <c r="S9">
-        <v>0.4178403755868544</v>
+        <v>0.3940677966101695</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1200596569724087</v>
+        <v>0.1203319502074689</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0238627889634601</v>
+        <v>0.02282157676348548</v>
       </c>
       <c r="E10">
-        <v>0.001491424310216256</v>
+        <v>0.001383125864453665</v>
       </c>
       <c r="F10">
-        <v>0.06338553318419091</v>
+        <v>0.0656984785615491</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1349739000745712</v>
+        <v>0.1334716459197787</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01864280387770321</v>
+        <v>0.01867219917012448</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1968680089485459</v>
+        <v>0.2019363762102351</v>
       </c>
       <c r="R10">
-        <v>0.07233407904548844</v>
+        <v>0.07330567081604426</v>
       </c>
       <c r="S10">
-        <v>0.3683818046234154</v>
+        <v>0.3623789764868603</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1512345679012346</v>
+        <v>0.1529411764705882</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.06790123456790123</v>
+        <v>0.06764705882352941</v>
       </c>
       <c r="K11">
-        <v>0.1944444444444444</v>
+        <v>0.2</v>
       </c>
       <c r="L11">
-        <v>0.5740740740740741</v>
+        <v>0.5647058823529412</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01234567901234568</v>
+        <v>0.01470588235294118</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6899999999999999</v>
+        <v>0.6811594202898551</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.235</v>
+        <v>0.2318840579710145</v>
       </c>
       <c r="K12">
-        <v>0.005</v>
+        <v>0.004830917874396135</v>
       </c>
       <c r="L12">
-        <v>0.02</v>
+        <v>0.02415458937198068</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.05</v>
+        <v>0.05797101449275362</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.631578947368421</v>
+        <v>0.65</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3684210526315789</v>
+        <v>0.35</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02542372881355932</v>
+        <v>0.02788844621513944</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1483050847457627</v>
+        <v>0.1434262948207171</v>
       </c>
       <c r="I15">
-        <v>0.05932203389830509</v>
+        <v>0.06772908366533864</v>
       </c>
       <c r="J15">
-        <v>0.3347457627118644</v>
+        <v>0.3266932270916335</v>
       </c>
       <c r="K15">
-        <v>0.05508474576271186</v>
+        <v>0.05577689243027888</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.02542372881355932</v>
+        <v>0.02390438247011952</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.0635593220338983</v>
+        <v>0.06374501992031872</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.288135593220339</v>
+        <v>0.2908366533864542</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01869158878504673</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1448598130841121</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="I16">
-        <v>0.1168224299065421</v>
+        <v>0.1160714285714286</v>
       </c>
       <c r="J16">
-        <v>0.411214953271028</v>
+        <v>0.4241071428571428</v>
       </c>
       <c r="K16">
-        <v>0.09345794392523364</v>
+        <v>0.08928571428571429</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.004672897196261682</v>
+        <v>0.004464285714285714</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.0514018691588785</v>
+        <v>0.05357142857142857</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1588785046728972</v>
+        <v>0.1517857142857143</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.03248259860788863</v>
+        <v>0.02928870292887029</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1670533642691415</v>
+        <v>0.1715481171548117</v>
       </c>
       <c r="I17">
-        <v>0.1183294663573086</v>
+        <v>0.1192468619246862</v>
       </c>
       <c r="J17">
-        <v>0.3805104408352668</v>
+        <v>0.3849372384937239</v>
       </c>
       <c r="K17">
-        <v>0.1090487238979118</v>
+        <v>0.1066945606694561</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.009280742459396751</v>
+        <v>0.008368200836820083</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.07192575406032482</v>
+        <v>0.07112970711297072</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.111368909512761</v>
+        <v>0.1087866108786611</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01630434782608696</v>
+        <v>0.01522842639593909</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1684782608695652</v>
+        <v>0.1573604060913706</v>
       </c>
       <c r="I18">
-        <v>0.07065217391304347</v>
+        <v>0.08121827411167512</v>
       </c>
       <c r="J18">
-        <v>0.4021739130434783</v>
+        <v>0.4162436548223351</v>
       </c>
       <c r="K18">
-        <v>0.125</v>
+        <v>0.116751269035533</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.0108695652173913</v>
+        <v>0.01015228426395939</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.07608695652173914</v>
+        <v>0.07106598984771574</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1304347826086956</v>
+        <v>0.1319796954314721</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02135493372606775</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.227540500736377</v>
+        <v>0.2305555555555556</v>
       </c>
       <c r="I19">
-        <v>0.08100147275405008</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="J19">
-        <v>0.3586156111929308</v>
+        <v>0.3569444444444445</v>
       </c>
       <c r="K19">
-        <v>0.1119293078055965</v>
+        <v>0.1097222222222222</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01840942562592047</v>
+        <v>0.01875</v>
       </c>
       <c r="N19">
-        <v>0.001472754050073638</v>
+        <v>0.001388888888888889</v>
       </c>
       <c r="O19">
-        <v>0.0625920471281296</v>
+        <v>0.06041666666666667</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1170839469808542</v>
+        <v>0.1180555555555556</v>
       </c>
     </row>
   </sheetData>
